--- a/data/trans_bre/P41E_2023_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P41E_2023_R-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.857892118807882</v>
+        <v>0.8578921188078764</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.0613307747808475</v>
+        <v>0.06133077478084708</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.618567868339137</v>
+        <v>-3.310254840672135</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.2178100367000747</v>
+        <v>-0.201535208314207</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.322518556272091</v>
+        <v>5.529392688174979</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.4714340678400505</v>
+        <v>0.5028812604755655</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.163242791990538</v>
+        <v>4.163242791990535</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4490297625765642</v>
+        <v>0.4490297625765636</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5167059176820068</v>
+        <v>1.063342921949572</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.06709946239373978</v>
+        <v>0.1092931939685831</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.354593582834059</v>
+        <v>7.479633974566949</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9783619949728831</v>
+        <v>1.002563085247453</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.890918225325398</v>
+        <v>-1.890918225325399</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-0.3534332054397302</v>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.837863157209419</v>
+        <v>-4.969686657041379</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6902251881757469</v>
+        <v>-0.6757254610999596</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.826958860924509</v>
+        <v>0.9525089131025671</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.250689254138005</v>
+        <v>0.3332051421776341</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.306942531582802</v>
+        <v>-4.273187257806353</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2504325750111988</v>
+        <v>-0.2437500921098296</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.443230696751594</v>
+        <v>3.634073650428329</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2733723826765858</v>
+        <v>0.2799784704020355</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.162960158566498</v>
+        <v>1.162960158566494</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1034879711022325</v>
+        <v>0.1034879711022321</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7472389232458587</v>
+        <v>-0.8477180388519899</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.06009954855302318</v>
+        <v>-0.06860828462341262</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.174641892841581</v>
+        <v>3.276833513419368</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.3093585966400771</v>
+        <v>0.3121975571179396</v>
       </c>
     </row>
     <row r="19">
